--- a/src/HR/updatedCandidates.xlsx
+++ b/src/HR/updatedCandidates.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Candidates"/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,7 +412,7 @@
         <v>6/15/94</v>
       </c>
       <c r="E2" t="str">
-        <v>U2FsdGVkX18wKUU_vBCAWUzFnChnSCZpzYYnNbPaOTM=</v>
+        <v>U2FsdGVkX1sulpviEGjWnS6k1ICzQg5b3eqeqcLUjwkymQ=</v>
       </c>
     </row>
     <row r="3">
@@ -423,13 +423,13 @@
         <v>mukesh dasari</v>
       </c>
       <c r="C3" t="str">
-        <v>1122334455</v>
+        <v>8237778188</v>
       </c>
       <c r="D3" t="str">
         <v>9/11/95</v>
       </c>
       <c r="E3" t="str">
-        <v>U2FsdGVkX19nG41TV7Z6JpsFq41TNpzhhBuYPS8huZZKnT6zJM2mraiYbNoZityi</v>
+        <v>U2FsdGVkX1_RxQwkoE8G8vIFyB6urUuCUykJM4H_FNta7wkBsulpQ8ypxzOVQTzf_Xe</v>
       </c>
     </row>
     <row r="4">
@@ -440,13 +440,64 @@
         <v>parag kulkarni</v>
       </c>
       <c r="C4" t="str">
-        <v>3322114455</v>
+        <v>9922962322</v>
       </c>
       <c r="D4" t="str">
         <v>3/27/70</v>
       </c>
       <c r="E4" t="str">
-        <v>U2FsdGVkX19BDqsulpZPe0whjUukSENl2SlxhCqIdTnReo=</v>
+        <v>U2FsdGVkX18sulpXvD0qzxJtDB3_95_AteY2WzDS89m8Po=</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>nirali@gmail.com</v>
+      </c>
+      <c r="B5" t="str">
+        <v>nirali gundecha</v>
+      </c>
+      <c r="C5" t="str">
+        <v>8805604500</v>
+      </c>
+      <c r="D5" t="str">
+        <v>10/9/95</v>
+      </c>
+      <c r="E5" t="str">
+        <v>U2FsdGVkX19OnyO9cLPTpNsulpRmnyg2ohAG3jtULiDME8jgWmrvGXyQnoZ4_eJCWT0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>aditya@gmail.com</v>
+      </c>
+      <c r="B6" t="str">
+        <v>aditya phadnis</v>
+      </c>
+      <c r="C6" t="str">
+        <v>8605012869</v>
+      </c>
+      <c r="D6" t="str">
+        <v>7/14/95</v>
+      </c>
+      <c r="E6" t="str">
+        <v>U2FsdGVkX1_ROXXyvWADvf8l2GNARNsXwUk3xAC1PTfZsulpra8RrZ30GMoanLWyRfp</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>pranav@gmail.com</v>
+      </c>
+      <c r="B7" t="str">
+        <v>pranav oke</v>
+      </c>
+      <c r="C7" t="str">
+        <v>9503770102</v>
+      </c>
+      <c r="D7" t="str">
+        <v>11/26/95</v>
+      </c>
+      <c r="E7" t="str">
+        <v>U2FsdGVkX1_M33eeVPNb34VVOsYm4sulpW6ktxRJmT5HSfUqiUZGxyzhzftDzIpO7Sj</v>
       </c>
     </row>
   </sheetData>

--- a/src/HR/updatedCandidates.xlsx
+++ b/src/HR/updatedCandidates.xlsx
@@ -376,128 +376,121 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Candidates"/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="B1" t="str">
         <v>Email</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Name</v>
       </c>
       <c r="C1" t="str">
         <v>Contact</v>
       </c>
       <c r="D1" t="str">
-        <v>DOB</v>
-      </c>
-      <c r="E1" t="str">
         <v>EncryptEmail</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>ksm@gmail.com</v>
+        <v>ARCHIT SURYAWANSHI</v>
       </c>
       <c r="B2" t="str">
-        <v>kaustubh mane</v>
+        <v>architsuryawanshi96@gmail.com</v>
       </c>
       <c r="C2" t="str">
-        <v>7798654238</v>
+        <v>9768739371</v>
       </c>
       <c r="D2" t="str">
-        <v>6/15/94</v>
-      </c>
-      <c r="E2" t="str">
-        <v>U2FsdGVkX1sulpviEGjWnS6k1ICzQg5b3eqeqcLUjwkymQ=</v>
+        <v>U2FsdGVkX1sulpVTGP0yNV_S03amnNcQnQZpKh9WoXTtrfePR5GKXNHNMIQEhsOe0D9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>mukeshda@gmail.com</v>
+        <v>Kalpesh Surana</v>
       </c>
       <c r="B3" t="str">
-        <v>mukesh dasari</v>
+        <v>kalpeshrsurana@gmail.com</v>
       </c>
       <c r="C3" t="str">
-        <v>8237778188</v>
+        <v>9028851237</v>
       </c>
       <c r="D3" t="str">
-        <v>9/11/95</v>
-      </c>
-      <c r="E3" t="str">
-        <v>U2FsdGVkX1_RxQwkoE8G8vIFyB6urUuCUykJM4H_FNta7wkBsulpQ8ypxzOVQTzf_Xe</v>
+        <v>U2FsdGVkX1_JIciCuKxyPnqR31_KcnqtktdzunKbhUI34kUmdmtcw0qvFg4rdHhe</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>parag@gmail.com</v>
+        <v>Kaustubh Mane</v>
       </c>
       <c r="B4" t="str">
-        <v>parag kulkarni</v>
+        <v>kaustubhmane15@gmail.com</v>
       </c>
       <c r="C4" t="str">
-        <v>9922962322</v>
+        <v>7798654238</v>
       </c>
       <c r="D4" t="str">
-        <v>3/27/70</v>
-      </c>
-      <c r="E4" t="str">
-        <v>U2FsdGVkX18sulpXvD0qzxJtDB3_95_AteY2WzDS89m8Po=</v>
+        <v>U2FsdGVkX1sulpqzsQQLlt_bT3KYny66OVJDRSDtIigGboNRGFR_Zyov+TaQ7HQJdJ6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>nirali@gmail.com</v>
+        <v>Neha .S. Bhalekar</v>
       </c>
       <c r="B5" t="str">
-        <v>nirali gundecha</v>
+        <v>nehabhalekar18@gmail.com</v>
       </c>
       <c r="C5" t="str">
-        <v>8805604500</v>
+        <v>9209855246</v>
       </c>
       <c r="D5" t="str">
-        <v>10/9/95</v>
-      </c>
-      <c r="E5" t="str">
-        <v>U2FsdGVkX19OnyO9cLPTpNsulpRmnyg2ohAG3jtULiDME8jgWmrvGXyQnoZ4_eJCWT0</v>
+        <v>U2FsdGVkX1sulp46niatOmQMpy+G4Ks_OtDPvPlMYvmWrYKeCLauB5I4YkuZaVOYRS2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>aditya@gmail.com</v>
+        <v>SWAPNIL B MELSHANKARE</v>
       </c>
       <c r="B6" t="str">
-        <v>aditya phadnis</v>
+        <v>swapnil.mel@gmail.com</v>
       </c>
       <c r="C6" t="str">
-        <v>8605012869</v>
+        <v>9180551768</v>
       </c>
       <c r="D6" t="str">
-        <v>7/14/95</v>
-      </c>
-      <c r="E6" t="str">
-        <v>U2FsdGVkX1_ROXXyvWADvf8l2GNARNsXwUk3xAC1PTfZsulpra8RrZ30GMoanLWyRfp</v>
+        <v>U2FsdGVkX188EhyBbIIsulpo2MxwBGuTZG1to7VoXe8crb2p__Fi8S8xb_YXHuu2tvm</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>pranav@gmail.com</v>
+        <v>Taha Sadikot</v>
       </c>
       <c r="B7" t="str">
-        <v>pranav oke</v>
+        <v>taha.sadikot0804@gmail.com</v>
       </c>
       <c r="C7" t="str">
-        <v>9503770102</v>
+        <v>8806544282</v>
       </c>
       <c r="D7" t="str">
-        <v>11/26/95</v>
-      </c>
-      <c r="E7" t="str">
-        <v>U2FsdGVkX1_M33eeVPNb34VVOsYm4sulpW6ktxRJmT5HSfUqiUZGxyzhzftDzIpO7Sj</v>
+        <v>U2FsdGVkX19Vq6xbrguGPkc4mnVk9eaSPdYe9TTvN2dFwEAJiBvsulps02TAkH+xTHi</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Yogesh Narad</v>
+      </c>
+      <c r="B8" t="str">
+        <v>yog431991@gmail.com</v>
+      </c>
+      <c r="C8" t="str">
+        <v>9970083226</v>
+      </c>
+      <c r="D8" t="str">
+        <v>U2FsdGVkX19Bd66nlZaAvhXAf1ybuonEsulp3Se0SKalOLIPYUAOWhCVavUvr6rb+y+</v>
       </c>
     </row>
   </sheetData>
